--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-Л/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-Л/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4716,6 +4716,50 @@
       </c>
       <c r="D316">
         <v>33.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>32.2</v>
+      </c>
+      <c r="D317">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>32</v>
+      </c>
+      <c r="D318">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>32.1</v>
+      </c>
+      <c r="D319">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>32.2</v>
+      </c>
+      <c r="D320">
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4757,7 +4801,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4783,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.10698412698407</v>
+        <v>30.13228840125387</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4799,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.01873015873016</v>
+        <v>29.06489028213166</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +4965,7 @@
         <v>0.9595221739259915</v>
       </c>
       <c r="D2">
-        <v>0.904608827434955</v>
+        <v>0.9048797814866298</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4943,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.904608827434955</v>
+        <v>0.9048797814866298</v>
       </c>
       <c r="C4">
         <v>0.9249251487549477</v>
@@ -4975,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.281401282794917</v>
+        <v>3.268458674244239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4991,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.259698373066049</v>
+        <v>4.252696802969502</v>
       </c>
     </row>
   </sheetData>
@@ -5001,7 +5045,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5026,6 +5070,14 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-Л/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-Л/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4760,6 +4760,17 @@
       </c>
       <c r="D320">
         <v>32.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>31.3</v>
+      </c>
+      <c r="D321">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4801,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4827,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.13228840125387</v>
+        <v>30.1359375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4835,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.88007117437723</v>
+        <v>28.88007117437722</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4843,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.06489028213166</v>
+        <v>29.073125</v>
       </c>
     </row>
   </sheetData>
@@ -4962,10 +4973,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9595221739259915</v>
+        <v>0.9595221739259945</v>
       </c>
       <c r="D2">
-        <v>0.9048797814866298</v>
+        <v>0.9048482589352417</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4973,13 +4984,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9595221739259915</v>
+        <v>0.9595221739259945</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9249251487549477</v>
+        <v>0.9249251487549478</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4987,10 +4998,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9048797814866298</v>
+        <v>0.9048482589352417</v>
       </c>
       <c r="C4">
-        <v>0.9249251487549477</v>
+        <v>0.9249251487549478</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5019,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.268458674244239</v>
+        <v>3.263984486731489</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5027,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.601898506629383</v>
+        <v>3.601898506629382</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5035,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.252696802969502</v>
+        <v>4.248580391710575</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-Л/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-Л/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4771,6 +4771,83 @@
       </c>
       <c r="D321">
         <v>31.7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>31.9</v>
+      </c>
+      <c r="D322">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>30.9</v>
+      </c>
+      <c r="D323">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>30.4</v>
+      </c>
+      <c r="D324">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>30</v>
+      </c>
+      <c r="D325">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>30.5</v>
+      </c>
+      <c r="D326">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>30.4</v>
+      </c>
+      <c r="D327">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>29.6</v>
+      </c>
+      <c r="D328">
+        <v>29.8</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4812,7 +4889,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4838,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.1359375</v>
+        <v>30.14434250764526</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4854,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.073125</v>
+        <v>29.10764525993884</v>
       </c>
     </row>
   </sheetData>
@@ -4976,7 +5053,7 @@
         <v>0.9595221739259945</v>
       </c>
       <c r="D2">
-        <v>0.9048482589352417</v>
+        <v>0.9042485416591103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4998,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9048482589352417</v>
+        <v>0.9042485416591103</v>
       </c>
       <c r="C4">
         <v>0.9249251487549478</v>
@@ -5030,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.263984486731489</v>
+        <v>3.230769929338267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5046,7 +5123,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.248580391710575</v>
+        <v>4.210544347467954</v>
       </c>
     </row>
   </sheetData>
@@ -5056,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5081,14 +5158,6 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
